--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H2">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>0.4393180846195555</v>
+        <v>0.05937083944444446</v>
       </c>
       <c r="R2">
-        <v>3.953862761576</v>
+        <v>0.534337555</v>
       </c>
       <c r="S2">
-        <v>0.00151537522169743</v>
+        <v>0.0001729852010771076</v>
       </c>
       <c r="T2">
-        <v>0.00151537522169743</v>
+        <v>0.0001729852010771076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H3">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>104.77729545138</v>
+        <v>0.67529844846</v>
       </c>
       <c r="R3">
-        <v>942.9956590624201</v>
+        <v>6.07768603614</v>
       </c>
       <c r="S3">
-        <v>0.3614167567469731</v>
+        <v>0.001967575984894431</v>
       </c>
       <c r="T3">
-        <v>0.3614167567469732</v>
+        <v>0.001967575984894431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H4">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>50.07132130821379</v>
+        <v>0.2741944046413334</v>
       </c>
       <c r="R4">
-        <v>450.641891773924</v>
+        <v>2.467749641772</v>
       </c>
       <c r="S4">
-        <v>0.1727150378838289</v>
+        <v>0.0007989035470095113</v>
       </c>
       <c r="T4">
-        <v>0.1727150378838289</v>
+        <v>0.0007989035470095113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H5">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>67.57917591772001</v>
+        <v>0.5653740531337779</v>
       </c>
       <c r="R5">
-        <v>608.21258325948</v>
+        <v>5.088366478204001</v>
       </c>
       <c r="S5">
-        <v>0.2331062896651034</v>
+        <v>0.001647295965162196</v>
       </c>
       <c r="T5">
-        <v>0.2331062896651035</v>
+        <v>0.001647295965162196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H6">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>13.76723061425667</v>
+        <v>0.1010669936277778</v>
       </c>
       <c r="R6">
-        <v>123.90507552831</v>
+        <v>0.9096029426500001</v>
       </c>
       <c r="S6">
-        <v>0.04748841642225027</v>
+        <v>0.0002944727475399686</v>
       </c>
       <c r="T6">
-        <v>0.04748841642225028</v>
+        <v>0.0002944727475399686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.054566</v>
+      </c>
+      <c r="I7">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="J7">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>28.73046866666667</v>
+      </c>
+      <c r="N7">
+        <v>86.191406</v>
+      </c>
+      <c r="O7">
+        <v>0.2377611270219907</v>
+      </c>
+      <c r="P7">
+        <v>0.2377611270219907</v>
+      </c>
+      <c r="Q7">
+        <v>0.5225689177551112</v>
+      </c>
+      <c r="R7">
+        <v>4.703120259796</v>
+      </c>
+      <c r="S7">
+        <v>0.001522577247692481</v>
+      </c>
+      <c r="T7">
+        <v>0.001522577247692481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>2.822099333333334</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>8.466298</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>18.87700766666667</v>
-      </c>
-      <c r="N7">
-        <v>56.631023</v>
-      </c>
-      <c r="O7">
-        <v>0.1837581240601467</v>
-      </c>
-      <c r="P7">
-        <v>0.1837581240601467</v>
-      </c>
-      <c r="Q7">
-        <v>53.27279075142823</v>
-      </c>
-      <c r="R7">
-        <v>479.455116762854</v>
-      </c>
-      <c r="S7">
-        <v>0.1837581240601467</v>
-      </c>
-      <c r="T7">
-        <v>0.1837581240601467</v>
+      <c r="I8">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J8">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.264166666666667</v>
+      </c>
+      <c r="N8">
+        <v>9.7925</v>
+      </c>
+      <c r="O8">
+        <v>0.02701285365228691</v>
+      </c>
+      <c r="P8">
+        <v>0.02701285365228691</v>
+      </c>
+      <c r="Q8">
+        <v>9.211802573888889</v>
+      </c>
+      <c r="R8">
+        <v>82.906223165</v>
+      </c>
+      <c r="S8">
+        <v>0.0268398684512098</v>
+      </c>
+      <c r="T8">
+        <v>0.02683986845120981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H9">
+        <v>8.466298</v>
+      </c>
+      <c r="I9">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J9">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>37.12743</v>
+      </c>
+      <c r="N9">
+        <v>111.38229</v>
+      </c>
+      <c r="O9">
+        <v>0.3072508041078968</v>
+      </c>
+      <c r="P9">
+        <v>0.3072508041078968</v>
+      </c>
+      <c r="Q9">
+        <v>104.77729545138</v>
+      </c>
+      <c r="R9">
+        <v>942.99565906242</v>
+      </c>
+      <c r="S9">
+        <v>0.3052832281230024</v>
+      </c>
+      <c r="T9">
+        <v>0.3052832281230025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H10">
+        <v>8.466298</v>
+      </c>
+      <c r="I10">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J10">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.075014</v>
+      </c>
+      <c r="N10">
+        <v>45.225042</v>
+      </c>
+      <c r="O10">
+        <v>0.1247543978518794</v>
+      </c>
+      <c r="P10">
+        <v>0.1247543978518794</v>
+      </c>
+      <c r="Q10">
+        <v>42.54318695939067</v>
+      </c>
+      <c r="R10">
+        <v>382.888682634516</v>
+      </c>
+      <c r="S10">
+        <v>0.1239554943048699</v>
+      </c>
+      <c r="T10">
+        <v>0.1239554943048699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H11">
+        <v>8.466298</v>
+      </c>
+      <c r="I11">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J11">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.08386466666667</v>
+      </c>
+      <c r="N11">
+        <v>93.25159400000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2572368303869774</v>
+      </c>
+      <c r="P11">
+        <v>0.2572368303869774</v>
+      </c>
+      <c r="Q11">
+        <v>87.72175375322357</v>
+      </c>
+      <c r="R11">
+        <v>789.4957837790121</v>
+      </c>
+      <c r="S11">
+        <v>0.2555895344218152</v>
+      </c>
+      <c r="T11">
+        <v>0.2555895344218153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H12">
+        <v>8.466298</v>
+      </c>
+      <c r="I12">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J12">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.556591666666667</v>
+      </c>
+      <c r="N12">
+        <v>16.669775</v>
+      </c>
+      <c r="O12">
+        <v>0.04598398697896871</v>
+      </c>
+      <c r="P12">
+        <v>0.04598398697896871</v>
+      </c>
+      <c r="Q12">
+        <v>15.68125363810556</v>
+      </c>
+      <c r="R12">
+        <v>141.13128274295</v>
+      </c>
+      <c r="S12">
+        <v>0.04568951423142874</v>
+      </c>
+      <c r="T12">
+        <v>0.04568951423142874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H13">
+        <v>8.466298</v>
+      </c>
+      <c r="I13">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J13">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>28.73046866666667</v>
+      </c>
+      <c r="N13">
+        <v>86.191406</v>
+      </c>
+      <c r="O13">
+        <v>0.2377611270219907</v>
+      </c>
+      <c r="P13">
+        <v>0.2377611270219907</v>
+      </c>
+      <c r="Q13">
+        <v>81.08023647055423</v>
+      </c>
+      <c r="R13">
+        <v>729.722128234988</v>
+      </c>
+      <c r="S13">
+        <v>0.2362385497742982</v>
+      </c>
+      <c r="T13">
+        <v>0.2362385497742983</v>
       </c>
     </row>
   </sheetData>
